--- a/2023/BBA/Sem 3_result.xlsx
+++ b/2023/BBA/Sem 3_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,8 +476,8 @@
     <col width="13" customWidth="1" min="18" max="18"/>
     <col width="11" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="10" customWidth="1" min="21" max="21"/>
-    <col width="10" customWidth="1" min="22" max="22"/>
+    <col width="11" customWidth="1" min="21" max="21"/>
+    <col width="11" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -4785,8 +4785,16 @@
       <c r="T43" s="3" t="n">
         <v>68.29000000000001</v>
       </c>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="2" t="n">
@@ -5081,8 +5089,16 @@
       <c r="T46" s="2" t="n">
         <v>67.29000000000001</v>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="n">
@@ -5177,8 +5193,16 @@
       <c r="T47" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V47" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="2" t="n">
@@ -5373,8 +5397,16 @@
       <c r="T49" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="U49" s="3" t="inlineStr"/>
-      <c r="V49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V49" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="2" t="n">
@@ -5569,8 +5601,16 @@
       <c r="T51" s="3" t="n">
         <v>61.71</v>
       </c>
-      <c r="U51" s="3" t="inlineStr"/>
-      <c r="V51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V51" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="2" t="n">
@@ -5665,8 +5705,16 @@
       <c r="T52" s="2" t="n">
         <v>61.57</v>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="n">
@@ -5761,8 +5809,16 @@
       <c r="T53" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="U53" s="3" t="inlineStr"/>
-      <c r="V53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V53" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="2" t="n">
@@ -5857,8 +5913,16 @@
       <c r="T54" s="2" t="n">
         <v>60.86</v>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="n">
@@ -5953,8 +6017,16 @@
       <c r="T55" s="3" t="n">
         <v>60.57</v>
       </c>
-      <c r="U55" s="3" t="inlineStr"/>
-      <c r="V55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V55" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="2" t="n">
@@ -6249,8 +6321,16 @@
       <c r="T58" s="2" t="n">
         <v>59.29</v>
       </c>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="n">
@@ -6345,8 +6425,16 @@
       <c r="T59" s="3" t="n">
         <v>57.86</v>
       </c>
-      <c r="U59" s="3" t="inlineStr"/>
-      <c r="V59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V59" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="2" t="n">
@@ -6441,8 +6529,16 @@
       <c r="T60" s="2" t="n">
         <v>56.71</v>
       </c>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="n">
@@ -6637,8 +6733,16 @@
       <c r="T62" s="2" t="n">
         <v>55.86</v>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="n">
@@ -6733,8 +6837,16 @@
       <c r="T63" s="3" t="n">
         <v>55.57</v>
       </c>
-      <c r="U63" s="3" t="inlineStr"/>
-      <c r="V63" s="3" t="inlineStr"/>
+      <c r="U63" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V63" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="2" t="n">
@@ -6829,8 +6941,16 @@
       <c r="T64" s="2" t="n">
         <v>54.14</v>
       </c>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="n">
@@ -7025,8 +7145,16 @@
       <c r="T66" s="2" t="n">
         <v>49.29</v>
       </c>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="n">
@@ -7221,8 +7349,16 @@
       <c r="T68" s="2" t="n">
         <v>33.5</v>
       </c>
-      <c r="U68" s="2" t="inlineStr"/>
-      <c r="V68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="V68" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
